--- a/biology/Zoologie/Elachista_(papillon)/Elachista_(papillon).xlsx
+++ b/biology/Zoologie/Elachista_(papillon)/Elachista_(papillon).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Elachista est un genre de papillons.
 Ce genre comprend de nombreuses espèces dont l'identification est très récente pour certaines. Les espèces sont regroupées en 4 sous-genres.
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Sous-genre Aphelosetia
-Elachista acutella Kaila, 2003
+          <t>Sous-genre Aphelosetia</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Elachista acutella Kaila, 2003
 Elachista adscitella Stainton, 1851
 Elachista agelensis Traugott-Olsen, 1996
 Elachista amparoae Traugott-Olsen, 1992
@@ -645,12 +662,80 @@
 Elachista (Aphelosetia) vegliae Parenti, 1978
 Elachista (Aphelosetia) veletaella Traugott-Olsen, 1992
 Elachista (Aphelosetia) vivesi Traugott-Olsen, 1992
-Elachista (Aphelosetia) zuernbaueri Traugott-Olsen, 1990
-Sous-genre Dibrachia
-Elachista (Dibrachia) anatoliensis Traugott-Olsen, 1990
-Elachista (Dibrachia) kalki Parenti, 1978
-Sous-genre Elachista
-Elachista (Elachista) abiskoella Bengtsson, 1977
+Elachista (Aphelosetia) zuernbaueri Traugott-Olsen, 1990</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Elachista_(papillon)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elachista_(papillon)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Espèces rencontrées en Europe</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-genre Dibrachia</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Elachista (Dibrachia) anatoliensis Traugott-Olsen, 1990
+Elachista (Dibrachia) kalki Parenti, 1978</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Elachista_(papillon)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elachista_(papillon)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Espèces rencontrées en Europe</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-genre Elachista</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Elachista (Elachista) abiskoella Bengtsson, 1977
 Elachista (Elachista) adelpha Kaila &amp; Jalava, 1994
 Elachista (Elachista) albicapilla Höfner, 1918
 Elachista (Elachista) albidella Nylander, 1848
@@ -744,9 +829,43 @@
 Elachista (Elachista) vonschantzi Svensson, 1976
 Elachista (Elachista) wieseriella Huemer, 2000
 Elachista (Elachista) zernyi Hartig, 1941
-Elachista (Elachista) zonulae Sruoga, 1992
-Sous-genre Hemiprosopa
-Elachista (Hemiprosopa) altaica (Sinev, 1998)</t>
+Elachista (Elachista) zonulae Sruoga, 1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Elachista_(papillon)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elachista_(papillon)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Espèces rencontrées en Europe</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sous-genre Hemiprosopa</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Elachista (Hemiprosopa) altaica (Sinev, 1998)</t>
         </is>
       </c>
     </row>
